--- a/需求响应/data/EDGlb.xlsx
+++ b/需求响应/data/EDGlb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprog\需求响应\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyProg\需求响应\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227D104E-AF12-4B85-B042-892911436697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591D1F33-7C88-4821-96FD-9EEA8FA2F851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21435" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6050" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>t0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,510 @@
   <si>
     <t>BUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t24</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t31</t>
+  </si>
+  <si>
+    <t>t32</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t36</t>
+  </si>
+  <si>
+    <t>t37</t>
+  </si>
+  <si>
+    <t>t38</t>
+  </si>
+  <si>
+    <t>t39</t>
+  </si>
+  <si>
+    <t>t40</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>t42</t>
+  </si>
+  <si>
+    <t>t43</t>
+  </si>
+  <si>
+    <t>t44</t>
+  </si>
+  <si>
+    <t>t45</t>
+  </si>
+  <si>
+    <t>t46</t>
+  </si>
+  <si>
+    <t>t47</t>
+  </si>
+  <si>
+    <t>t48</t>
+  </si>
+  <si>
+    <t>t49</t>
+  </si>
+  <si>
+    <t>t50</t>
+  </si>
+  <si>
+    <t>t51</t>
+  </si>
+  <si>
+    <t>t52</t>
+  </si>
+  <si>
+    <t>t53</t>
+  </si>
+  <si>
+    <t>t54</t>
+  </si>
+  <si>
+    <t>t55</t>
+  </si>
+  <si>
+    <t>t56</t>
+  </si>
+  <si>
+    <t>t57</t>
+  </si>
+  <si>
+    <t>t58</t>
+  </si>
+  <si>
+    <t>t59</t>
+  </si>
+  <si>
+    <t>t60</t>
+  </si>
+  <si>
+    <t>t61</t>
+  </si>
+  <si>
+    <t>t62</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t64</t>
+  </si>
+  <si>
+    <t>t65</t>
+  </si>
+  <si>
+    <t>t66</t>
+  </si>
+  <si>
+    <t>t67</t>
+  </si>
+  <si>
+    <t>t68</t>
+  </si>
+  <si>
+    <t>t69</t>
+  </si>
+  <si>
+    <t>t70</t>
+  </si>
+  <si>
+    <t>t71</t>
+  </si>
+  <si>
+    <t>t72</t>
+  </si>
+  <si>
+    <t>t73</t>
+  </si>
+  <si>
+    <t>t74</t>
+  </si>
+  <si>
+    <t>t75</t>
+  </si>
+  <si>
+    <t>t76</t>
+  </si>
+  <si>
+    <t>t77</t>
+  </si>
+  <si>
+    <t>t78</t>
+  </si>
+  <si>
+    <t>t79</t>
+  </si>
+  <si>
+    <t>t80</t>
+  </si>
+  <si>
+    <t>t81</t>
+  </si>
+  <si>
+    <t>t82</t>
+  </si>
+  <si>
+    <t>t83</t>
+  </si>
+  <si>
+    <t>t84</t>
+  </si>
+  <si>
+    <t>t85</t>
+  </si>
+  <si>
+    <t>t86</t>
+  </si>
+  <si>
+    <t>t87</t>
+  </si>
+  <si>
+    <t>t88</t>
+  </si>
+  <si>
+    <t>t89</t>
+  </si>
+  <si>
+    <t>t90</t>
+  </si>
+  <si>
+    <t>t91</t>
+  </si>
+  <si>
+    <t>t92</t>
+  </si>
+  <si>
+    <t>t93</t>
+  </si>
+  <si>
+    <t>t94</t>
+  </si>
+  <si>
+    <t>t95</t>
+  </si>
+  <si>
+    <t>t96</t>
+  </si>
+  <si>
+    <t>t97</t>
+  </si>
+  <si>
+    <t>t98</t>
+  </si>
+  <si>
+    <t>t99</t>
+  </si>
+  <si>
+    <t>t100</t>
+  </si>
+  <si>
+    <t>t101</t>
+  </si>
+  <si>
+    <t>t102</t>
+  </si>
+  <si>
+    <t>t103</t>
+  </si>
+  <si>
+    <t>t104</t>
+  </si>
+  <si>
+    <t>t105</t>
+  </si>
+  <si>
+    <t>t106</t>
+  </si>
+  <si>
+    <t>t107</t>
+  </si>
+  <si>
+    <t>t108</t>
+  </si>
+  <si>
+    <t>t109</t>
+  </si>
+  <si>
+    <t>t110</t>
+  </si>
+  <si>
+    <t>t111</t>
+  </si>
+  <si>
+    <t>t112</t>
+  </si>
+  <si>
+    <t>t113</t>
+  </si>
+  <si>
+    <t>t114</t>
+  </si>
+  <si>
+    <t>t115</t>
+  </si>
+  <si>
+    <t>t116</t>
+  </si>
+  <si>
+    <t>t117</t>
+  </si>
+  <si>
+    <t>t118</t>
+  </si>
+  <si>
+    <t>t119</t>
+  </si>
+  <si>
+    <t>t120</t>
+  </si>
+  <si>
+    <t>t121</t>
+  </si>
+  <si>
+    <t>t122</t>
+  </si>
+  <si>
+    <t>t123</t>
+  </si>
+  <si>
+    <t>t124</t>
+  </si>
+  <si>
+    <t>t125</t>
+  </si>
+  <si>
+    <t>t126</t>
+  </si>
+  <si>
+    <t>t127</t>
+  </si>
+  <si>
+    <t>t128</t>
+  </si>
+  <si>
+    <t>t129</t>
+  </si>
+  <si>
+    <t>t130</t>
+  </si>
+  <si>
+    <t>t131</t>
+  </si>
+  <si>
+    <t>t132</t>
+  </si>
+  <si>
+    <t>t133</t>
+  </si>
+  <si>
+    <t>t134</t>
+  </si>
+  <si>
+    <t>t135</t>
+  </si>
+  <si>
+    <t>t136</t>
+  </si>
+  <si>
+    <t>t137</t>
+  </si>
+  <si>
+    <t>t138</t>
+  </si>
+  <si>
+    <t>t139</t>
+  </si>
+  <si>
+    <t>t140</t>
+  </si>
+  <si>
+    <t>t141</t>
+  </si>
+  <si>
+    <t>t142</t>
+  </si>
+  <si>
+    <t>t143</t>
+  </si>
+  <si>
+    <t>t144</t>
+  </si>
+  <si>
+    <t>t145</t>
+  </si>
+  <si>
+    <t>t146</t>
+  </si>
+  <si>
+    <t>t147</t>
+  </si>
+  <si>
+    <t>t148</t>
+  </si>
+  <si>
+    <t>t149</t>
+  </si>
+  <si>
+    <t>t150</t>
+  </si>
+  <si>
+    <t>t151</t>
+  </si>
+  <si>
+    <t>t152</t>
+  </si>
+  <si>
+    <t>t153</t>
+  </si>
+  <si>
+    <t>t154</t>
+  </si>
+  <si>
+    <t>t155</t>
+  </si>
+  <si>
+    <t>t156</t>
+  </si>
+  <si>
+    <t>t157</t>
+  </si>
+  <si>
+    <t>t158</t>
+  </si>
+  <si>
+    <t>t159</t>
+  </si>
+  <si>
+    <t>t160</t>
+  </si>
+  <si>
+    <t>t161</t>
+  </si>
+  <si>
+    <t>t162</t>
+  </si>
+  <si>
+    <t>t163</t>
+  </si>
+  <si>
+    <t>t164</t>
+  </si>
+  <si>
+    <t>t165</t>
+  </si>
+  <si>
+    <t>t166</t>
+  </si>
+  <si>
+    <t>t167</t>
+  </si>
+  <si>
+    <t>t168</t>
+  </si>
+  <si>
+    <t>t169</t>
+  </si>
+  <si>
+    <t>t170</t>
+  </si>
+  <si>
+    <t>t171</t>
+  </si>
+  <si>
+    <t>t172</t>
+  </si>
+  <si>
+    <t>t173</t>
+  </si>
+  <si>
+    <t>t174</t>
+  </si>
+  <si>
+    <t>t175</t>
+  </si>
+  <si>
+    <t>t176</t>
+  </si>
+  <si>
+    <t>t177</t>
+  </si>
+  <si>
+    <t>t178</t>
+  </si>
+  <si>
+    <t>t179</t>
+  </si>
+  <si>
+    <t>t180</t>
+  </si>
+  <si>
+    <t>t181</t>
+  </si>
+  <si>
+    <t>t182</t>
+  </si>
+  <si>
+    <t>t183</t>
+  </si>
+  <si>
+    <t>t184</t>
+  </si>
+  <si>
+    <t>t185</t>
+  </si>
+  <si>
+    <t>t186</t>
+  </si>
+  <si>
+    <t>t187</t>
+  </si>
+  <si>
+    <t>t188</t>
+  </si>
+  <si>
+    <t>t189</t>
+  </si>
+  <si>
+    <t>t190</t>
+  </si>
+  <si>
+    <t>t191</t>
   </si>
 </sst>
 </file>
@@ -443,15 +947,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:GL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="FP1" workbookViewId="0">
+      <selection activeCell="GH14" sqref="GH14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -530,8 +1034,512 @@
       <c r="Z1" t="s">
         <v>23</v>
       </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>133</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>149</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:194" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -542,73 +1550,577 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="L2">
-        <v>270</v>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N2">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="R2">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="S2">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="T2">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="U2">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="V2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="W2">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="X2">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="Y2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Z2">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <v>10</v>
+      </c>
+      <c r="AC2">
+        <v>10</v>
+      </c>
+      <c r="AD2">
+        <v>10</v>
+      </c>
+      <c r="AE2">
+        <v>10</v>
+      </c>
+      <c r="AF2">
+        <v>10</v>
+      </c>
+      <c r="AG2">
+        <v>10</v>
+      </c>
+      <c r="AH2">
+        <v>10</v>
+      </c>
+      <c r="AI2">
+        <v>10</v>
+      </c>
+      <c r="AJ2">
+        <v>10</v>
+      </c>
+      <c r="AK2">
+        <v>10</v>
+      </c>
+      <c r="AL2">
+        <v>10</v>
+      </c>
+      <c r="AM2">
+        <v>10</v>
+      </c>
+      <c r="AN2">
+        <v>10</v>
+      </c>
+      <c r="AO2">
+        <v>10</v>
+      </c>
+      <c r="AP2">
+        <v>10</v>
+      </c>
+      <c r="AQ2">
+        <v>10</v>
+      </c>
+      <c r="AR2">
+        <v>10</v>
+      </c>
+      <c r="AS2">
+        <v>10</v>
+      </c>
+      <c r="AT2">
+        <v>10</v>
+      </c>
+      <c r="AU2">
+        <v>10</v>
+      </c>
+      <c r="AV2">
+        <v>10</v>
+      </c>
+      <c r="AW2">
+        <v>10</v>
+      </c>
+      <c r="AX2">
+        <v>10</v>
+      </c>
+      <c r="AY2">
+        <v>10</v>
+      </c>
+      <c r="AZ2">
+        <v>10</v>
+      </c>
+      <c r="BA2">
+        <v>10</v>
+      </c>
+      <c r="BB2">
+        <v>10</v>
+      </c>
+      <c r="BC2">
+        <v>10</v>
+      </c>
+      <c r="BD2">
+        <v>10</v>
+      </c>
+      <c r="BE2">
+        <v>10</v>
+      </c>
+      <c r="BF2">
+        <v>10</v>
+      </c>
+      <c r="BG2">
+        <v>10</v>
+      </c>
+      <c r="BH2">
+        <v>10</v>
+      </c>
+      <c r="BI2">
+        <v>10</v>
+      </c>
+      <c r="BJ2">
+        <v>10</v>
+      </c>
+      <c r="BK2">
+        <v>10</v>
+      </c>
+      <c r="BL2">
+        <v>10</v>
+      </c>
+      <c r="BM2">
+        <v>10</v>
+      </c>
+      <c r="BN2">
+        <v>10</v>
+      </c>
+      <c r="BO2">
+        <v>10</v>
+      </c>
+      <c r="BP2">
+        <v>10</v>
+      </c>
+      <c r="BQ2">
+        <v>10</v>
+      </c>
+      <c r="BR2">
+        <v>10</v>
+      </c>
+      <c r="BS2">
+        <v>10</v>
+      </c>
+      <c r="BT2">
+        <v>10</v>
+      </c>
+      <c r="BU2">
+        <v>10</v>
+      </c>
+      <c r="BV2">
+        <v>10</v>
+      </c>
+      <c r="BW2">
+        <v>10</v>
+      </c>
+      <c r="BX2">
+        <v>10</v>
+      </c>
+      <c r="BY2">
+        <v>10</v>
+      </c>
+      <c r="BZ2">
+        <v>10</v>
+      </c>
+      <c r="CA2">
+        <v>10</v>
+      </c>
+      <c r="CB2">
+        <v>10</v>
+      </c>
+      <c r="CC2">
+        <v>10</v>
+      </c>
+      <c r="CD2">
+        <v>10</v>
+      </c>
+      <c r="CE2">
+        <v>10</v>
+      </c>
+      <c r="CF2">
+        <v>10</v>
+      </c>
+      <c r="CG2">
+        <v>10</v>
+      </c>
+      <c r="CH2">
+        <v>10</v>
+      </c>
+      <c r="CI2">
+        <v>10</v>
+      </c>
+      <c r="CJ2">
+        <v>10</v>
+      </c>
+      <c r="CK2">
+        <v>10</v>
+      </c>
+      <c r="CL2">
+        <v>10</v>
+      </c>
+      <c r="CM2">
+        <v>10</v>
+      </c>
+      <c r="CN2">
+        <v>10</v>
+      </c>
+      <c r="CO2">
+        <v>10</v>
+      </c>
+      <c r="CP2">
+        <v>10</v>
+      </c>
+      <c r="CQ2">
+        <v>10</v>
+      </c>
+      <c r="CR2">
+        <v>10</v>
+      </c>
+      <c r="CS2">
+        <v>10</v>
+      </c>
+      <c r="CT2">
+        <v>10</v>
+      </c>
+      <c r="CU2">
+        <v>10</v>
+      </c>
+      <c r="CV2">
+        <v>10</v>
+      </c>
+      <c r="CW2">
+        <v>10</v>
+      </c>
+      <c r="CX2">
+        <v>10</v>
+      </c>
+      <c r="CY2">
+        <v>10</v>
+      </c>
+      <c r="CZ2">
+        <v>10</v>
+      </c>
+      <c r="DA2">
+        <v>10</v>
+      </c>
+      <c r="DB2">
+        <v>10</v>
+      </c>
+      <c r="DC2">
+        <v>10</v>
+      </c>
+      <c r="DD2">
+        <v>10</v>
+      </c>
+      <c r="DE2">
+        <v>10</v>
+      </c>
+      <c r="DF2">
+        <v>10</v>
+      </c>
+      <c r="DG2">
+        <v>10</v>
+      </c>
+      <c r="DH2">
+        <v>10</v>
+      </c>
+      <c r="DI2">
+        <v>10</v>
+      </c>
+      <c r="DJ2">
+        <v>10</v>
+      </c>
+      <c r="DK2">
+        <v>10</v>
+      </c>
+      <c r="DL2">
+        <v>10</v>
+      </c>
+      <c r="DM2">
+        <v>10</v>
+      </c>
+      <c r="DN2">
+        <v>10</v>
+      </c>
+      <c r="DO2">
+        <v>10</v>
+      </c>
+      <c r="DP2">
+        <v>10</v>
+      </c>
+      <c r="DQ2">
+        <v>10</v>
+      </c>
+      <c r="DR2">
+        <v>10</v>
+      </c>
+      <c r="DS2">
+        <v>10</v>
+      </c>
+      <c r="DT2">
+        <v>10</v>
+      </c>
+      <c r="DU2">
+        <v>10</v>
+      </c>
+      <c r="DV2">
+        <v>10</v>
+      </c>
+      <c r="DW2">
+        <v>10</v>
+      </c>
+      <c r="DX2">
+        <v>10</v>
+      </c>
+      <c r="DY2">
+        <v>10</v>
+      </c>
+      <c r="DZ2">
+        <v>10</v>
+      </c>
+      <c r="EA2">
+        <v>10</v>
+      </c>
+      <c r="EB2">
+        <v>10</v>
+      </c>
+      <c r="EC2">
+        <v>10</v>
+      </c>
+      <c r="ED2">
+        <v>10</v>
+      </c>
+      <c r="EE2">
+        <v>10</v>
+      </c>
+      <c r="EF2">
+        <v>10</v>
+      </c>
+      <c r="EG2">
+        <v>10</v>
+      </c>
+      <c r="EH2">
+        <v>10</v>
+      </c>
+      <c r="EI2">
+        <v>10</v>
+      </c>
+      <c r="EJ2">
+        <v>10</v>
+      </c>
+      <c r="EK2">
+        <v>10</v>
+      </c>
+      <c r="EL2">
+        <v>10</v>
+      </c>
+      <c r="EM2">
+        <v>10</v>
+      </c>
+      <c r="EN2">
+        <v>10</v>
+      </c>
+      <c r="EO2">
+        <v>10</v>
+      </c>
+      <c r="EP2">
+        <v>10</v>
+      </c>
+      <c r="EQ2">
+        <v>10</v>
+      </c>
+      <c r="ER2">
+        <v>10</v>
+      </c>
+      <c r="ES2">
+        <v>10</v>
+      </c>
+      <c r="ET2">
+        <v>10</v>
+      </c>
+      <c r="EU2">
+        <v>10</v>
+      </c>
+      <c r="EV2">
+        <v>10</v>
+      </c>
+      <c r="EW2">
+        <v>10</v>
+      </c>
+      <c r="EX2">
+        <v>10</v>
+      </c>
+      <c r="EY2">
+        <v>10</v>
+      </c>
+      <c r="EZ2">
+        <v>10</v>
+      </c>
+      <c r="FA2">
+        <v>10</v>
+      </c>
+      <c r="FB2">
+        <v>10</v>
+      </c>
+      <c r="FC2">
+        <v>10</v>
+      </c>
+      <c r="FD2">
+        <v>10</v>
+      </c>
+      <c r="FE2">
+        <v>10</v>
+      </c>
+      <c r="FF2">
+        <v>10</v>
+      </c>
+      <c r="FG2">
+        <v>10</v>
+      </c>
+      <c r="FH2">
+        <v>10</v>
+      </c>
+      <c r="FI2">
+        <v>10</v>
+      </c>
+      <c r="FJ2">
+        <v>10</v>
+      </c>
+      <c r="FK2">
+        <v>10</v>
+      </c>
+      <c r="FL2">
+        <v>10</v>
+      </c>
+      <c r="FM2">
+        <v>10</v>
+      </c>
+      <c r="FN2">
+        <v>10</v>
+      </c>
+      <c r="FO2">
+        <v>10</v>
+      </c>
+      <c r="FP2">
+        <v>10</v>
+      </c>
+      <c r="FQ2">
+        <v>10</v>
+      </c>
+      <c r="FR2">
+        <v>10</v>
+      </c>
+      <c r="FS2">
+        <v>10</v>
+      </c>
+      <c r="FT2">
+        <v>10</v>
+      </c>
+      <c r="FU2">
+        <v>10</v>
+      </c>
+      <c r="FV2">
+        <v>10</v>
+      </c>
+      <c r="FW2">
+        <v>10</v>
+      </c>
+      <c r="FX2">
+        <v>10</v>
+      </c>
+      <c r="FY2">
+        <v>10</v>
+      </c>
+      <c r="FZ2">
+        <v>10</v>
+      </c>
+      <c r="GA2">
+        <v>10</v>
+      </c>
+      <c r="GB2">
+        <v>10</v>
+      </c>
+      <c r="GC2">
+        <v>10</v>
+      </c>
+      <c r="GD2">
+        <v>10</v>
+      </c>
+      <c r="GE2">
+        <v>10</v>
+      </c>
+      <c r="GF2">
+        <v>10</v>
+      </c>
+      <c r="GG2">
+        <v>10</v>
+      </c>
+      <c r="GH2">
+        <v>10</v>
+      </c>
+      <c r="GI2">
+        <v>10</v>
+      </c>
+      <c r="GJ2">
+        <v>10</v>
+      </c>
+      <c r="GK2">
+        <v>10</v>
+      </c>
+      <c r="GL2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
